--- a/public/data/Mapped_Da.xlsx
+++ b/public/data/Mapped_Da.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C42E5-4A3F-44DD-9BD7-E39DA44061BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58829FE7-B20E-4273-8AD1-E4753CF64DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>signup_date</t>
   </si>
@@ -106,64 +106,22 @@
     <t>end_year</t>
   </si>
   <si>
-    <t>Dalal Suboh</t>
-  </si>
-  <si>
-    <t>Ihab allam</t>
-  </si>
-  <si>
-    <t>Youstina emed</t>
-  </si>
-  <si>
-    <t>WASSIM AFIFI</t>
-  </si>
-  <si>
-    <t>dalalsuboh78@gmail.com</t>
-  </si>
-  <si>
-    <t>Ihaballam1975@gmail.com</t>
-  </si>
-  <si>
-    <t>Youstinamed@gmail.com</t>
-  </si>
-  <si>
-    <t>Wmafifi2000@gmail.com</t>
-  </si>
-  <si>
-    <t>12675772388-2675771623</t>
-  </si>
-  <si>
-    <t>Canada</t>
+    <t>Ahmed zee</t>
+  </si>
+  <si>
+    <t>old coustomer</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>BASMALA YASSER</t>
-  </si>
-  <si>
-    <t>ahmed atef</t>
-  </si>
-  <si>
-    <t>youssef mekkawy</t>
-  </si>
-  <si>
-    <t>Sefen Adel</t>
-  </si>
-  <si>
-    <t>Sherif Ashraf</t>
-  </si>
-  <si>
-    <t>CS TEAM</t>
-  </si>
-  <si>
-    <t>AHMED KHALED TEAM</t>
-  </si>
-  <si>
-    <t>SMARTERS</t>
-  </si>
-  <si>
-    <t>BOB PLAYER</t>
+    <t>Mohsen Sayed</t>
+  </si>
+  <si>
+    <t>Ali AShraf</t>
+  </si>
+  <si>
+    <t>MOHAMED TEAM</t>
   </si>
   <si>
     <t>IBO PLAYER</t>
@@ -172,19 +130,10 @@
     <t>SILVER</t>
   </si>
   <si>
-    <t>GOLD</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
-    <t>WEBSIRE-91</t>
-  </si>
-  <si>
-    <t>website-41</t>
-  </si>
-  <si>
-    <t>Website 100</t>
+    <t>Website 80</t>
   </si>
 </sst>
 </file>
@@ -192,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14409]d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14409]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,10 +200,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,16 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="3" sqref="A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -704,55 +652,55 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>15877030840</v>
+        <v>15195053058</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>7.7857142857142856</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I2">
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>2025</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -761,13 +709,13 @@
         <v>432</v>
       </c>
       <c r="W2">
-        <v>0.25586854460093889</v>
+        <v>0.18779342723004691</v>
       </c>
       <c r="X2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Y2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -777,264 +725,6 @@
       </c>
       <c r="AB2">
         <v>2026</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45869</v>
-      </c>
-      <c r="B3" s="3">
-        <v>46418</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>17652102442</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>59</v>
-      </c>
-      <c r="H3">
-        <v>3.2777777777777781</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3">
-        <v>2025</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>555</v>
-      </c>
-      <c r="W3">
-        <v>0.1074681238615665</v>
-      </c>
-      <c r="X3">
-        <v>59</v>
-      </c>
-      <c r="Y3">
-        <v>59</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>45869</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45991</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>59</v>
-      </c>
-      <c r="H4">
-        <v>14.75</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4">
-        <v>2025</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>128</v>
-      </c>
-      <c r="W4">
-        <v>0.48360655737704922</v>
-      </c>
-      <c r="X4">
-        <v>59</v>
-      </c>
-      <c r="Y4">
-        <v>59</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
-      <c r="AB4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45869</v>
-      </c>
-      <c r="B5" s="3">
-        <v>46721</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>17037434669</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>3.5714285714285721</v>
-      </c>
-      <c r="I5">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5">
-        <v>2025</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>858</v>
-      </c>
-      <c r="W5">
-        <v>0.1173708920187793</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
-        <v>100</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>2027</v>
       </c>
     </row>
   </sheetData>
